--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1952,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.5987495517377</v>
+        <v>216.9899507790937</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.5221059937186</v>
+        <v>296.8952235768238</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.3719260533538</v>
+        <v>268.5599601338027</v>
       </c>
       <c r="AD2" t="n">
-        <v>192598.7495517377</v>
+        <v>216989.9507790937</v>
       </c>
       <c r="AE2" t="n">
-        <v>263522.1059937187</v>
+        <v>296895.2235768238</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.989355554562497e-06</v>
+        <v>7.381352246788376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.809375</v>
       </c>
       <c r="AH2" t="n">
-        <v>238371.9260533538</v>
+        <v>268559.9601338027</v>
       </c>
     </row>
     <row r="3">
@@ -2058,28 +2058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.06310285459733</v>
+        <v>94.17345212225476</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.2823576942001</v>
+        <v>128.8522718331034</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.5662870651733</v>
+        <v>116.5547918546855</v>
       </c>
       <c r="AD3" t="n">
-        <v>82063.10285459734</v>
+        <v>94173.45212225476</v>
       </c>
       <c r="AE3" t="n">
-        <v>112282.3576942001</v>
+        <v>128852.2718331034</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.248559549460499e-06</v>
+        <v>1.341173294398355e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.096875</v>
       </c>
       <c r="AH3" t="n">
-        <v>101566.2870651733</v>
+        <v>116554.7918546855</v>
       </c>
     </row>
     <row r="4">
@@ -2164,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.35514982191133</v>
+        <v>70.55075043558935</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.844090433825</v>
+        <v>96.53064922537756</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.22388250472403</v>
+        <v>87.31789954494847</v>
       </c>
       <c r="AD4" t="n">
-        <v>58355.14982191133</v>
+        <v>70550.75043558935</v>
       </c>
       <c r="AE4" t="n">
-        <v>79844.090433825</v>
+        <v>96530.64922537757</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.187471724885214e-06</v>
+        <v>1.514896628927463e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.85625</v>
       </c>
       <c r="AH4" t="n">
-        <v>72223.88250472402</v>
+        <v>87317.89954494848</v>
       </c>
     </row>
     <row r="5">
@@ -2270,28 +2270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.91842480384209</v>
+        <v>70.1140254175201</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.24654399715494</v>
+        <v>95.9331027887075</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.68336506130788</v>
+        <v>86.77738210153234</v>
       </c>
       <c r="AD5" t="n">
-        <v>57918.42480384209</v>
+        <v>70114.0254175201</v>
       </c>
       <c r="AE5" t="n">
-        <v>79246.54399715495</v>
+        <v>95933.1027887075</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.249910259857522e-06</v>
+        <v>1.52644939262828e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.841666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>71683.36506130788</v>
+        <v>86777.38210153233</v>
       </c>
     </row>
   </sheetData>
@@ -2567,28 +2567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.0256149564105</v>
+        <v>141.467698367273</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.4878533059368</v>
+        <v>193.5623460203933</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.0756792360883</v>
+        <v>175.0890273827206</v>
       </c>
       <c r="AD2" t="n">
-        <v>118025.6149564105</v>
+        <v>141467.698367273</v>
       </c>
       <c r="AE2" t="n">
-        <v>161487.8533059368</v>
+        <v>193562.3460203933</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.28083164918386e-06</v>
+        <v>1.00660801267596e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.977083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>146075.6792360883</v>
+        <v>175089.0273827206</v>
       </c>
     </row>
     <row r="3">
@@ -2673,28 +2673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.72460870025792</v>
+        <v>67.48832083297499</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.2448680198968</v>
+        <v>92.34049793822386</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.96816482643959</v>
+        <v>83.52765041572513</v>
       </c>
       <c r="AD3" t="n">
-        <v>55724.60870025792</v>
+        <v>67488.32083297499</v>
       </c>
       <c r="AE3" t="n">
-        <v>76244.86801989679</v>
+        <v>92340.49793822387</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.324795251265436e-06</v>
+        <v>1.586834453453112e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.888541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>68968.16482643959</v>
+        <v>83527.65041572513</v>
       </c>
     </row>
     <row r="4">
@@ -2779,28 +2779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.99920497222954</v>
+        <v>66.76291710494662</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.25233863665503</v>
+        <v>91.3479685549821</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.07036105451036</v>
+        <v>82.6298466437959</v>
       </c>
       <c r="AD4" t="n">
-        <v>54999.20497222954</v>
+        <v>66762.91710494662</v>
       </c>
       <c r="AE4" t="n">
-        <v>75252.33863665503</v>
+        <v>91347.9685549821</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.413986252199009e-06</v>
+        <v>1.603835634737163e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.86875</v>
       </c>
       <c r="AH4" t="n">
-        <v>68070.36105451036</v>
+        <v>82629.8466437959</v>
       </c>
     </row>
   </sheetData>
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.10252508411872</v>
+        <v>71.48071622928889</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.60317047321757</v>
+        <v>97.80306945151193</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.62420122106012</v>
+        <v>88.46888177055396</v>
       </c>
       <c r="AD2" t="n">
-        <v>61102.52508411872</v>
+        <v>71480.71622928888</v>
       </c>
       <c r="AE2" t="n">
-        <v>83603.17047321757</v>
+        <v>97803.06945151192</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.182031390363747e-06</v>
+        <v>1.742558559985164e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.14375</v>
       </c>
       <c r="AH2" t="n">
-        <v>75624.20122106012</v>
+        <v>88468.88177055397</v>
       </c>
     </row>
     <row r="3">
@@ -3182,28 +3182,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.13615728650823</v>
+        <v>71.51434843167839</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.64918753627492</v>
+        <v>97.84908651456927</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.66582648020464</v>
+        <v>88.51050702969849</v>
       </c>
       <c r="AD3" t="n">
-        <v>61136.15728650823</v>
+        <v>71514.34843167839</v>
       </c>
       <c r="AE3" t="n">
-        <v>83649.18753627493</v>
+        <v>97849.08651456927</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.212680117658006e-06</v>
+        <v>1.749085936812655e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.135416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>75665.82648020465</v>
+        <v>88510.50702969849</v>
       </c>
     </row>
   </sheetData>
@@ -3479,28 +3479,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.88278420913403</v>
+        <v>78.76932890931364</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.88022013198034</v>
+        <v>107.7756708712143</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.0158622808145</v>
+        <v>97.48971210739712</v>
       </c>
       <c r="AD2" t="n">
-        <v>67882.78420913403</v>
+        <v>78769.32890931364</v>
       </c>
       <c r="AE2" t="n">
-        <v>92880.22013198034</v>
+        <v>107775.6708712143</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.831678462237275e-06</v>
+        <v>1.590101493755466e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.142708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>84015.8622808145</v>
+        <v>97489.71210739712</v>
       </c>
     </row>
     <row r="3">
@@ -3585,28 +3585,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.24351285120044</v>
+        <v>73.01642323445759</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.11363498722298</v>
+        <v>99.90429152659414</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.4220880691626</v>
+        <v>90.36956615987472</v>
       </c>
       <c r="AD3" t="n">
-        <v>51243.51285120044</v>
+        <v>73016.42323445759</v>
       </c>
       <c r="AE3" t="n">
-        <v>70113.63498722298</v>
+        <v>99904.29152659414</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.468516858576194e-06</v>
+        <v>1.719401705732002e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.98125</v>
       </c>
       <c r="AH3" t="n">
-        <v>63422.08806916261</v>
+        <v>90369.56615987472</v>
       </c>
     </row>
   </sheetData>
@@ -3882,28 +3882,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.84524367073337</v>
+        <v>70.80648062170616</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.25114669296903</v>
+        <v>96.88055054804198</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.30577409632991</v>
+        <v>87.63440677646749</v>
       </c>
       <c r="AD2" t="n">
-        <v>60845.24367073337</v>
+        <v>70806.48062170616</v>
       </c>
       <c r="AE2" t="n">
-        <v>83251.14669296904</v>
+        <v>96880.55054804198</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.782048898253554e-06</v>
+        <v>1.73291028751718e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.340625</v>
       </c>
       <c r="AH2" t="n">
-        <v>75305.77409632991</v>
+        <v>87634.40677646748</v>
       </c>
     </row>
   </sheetData>
@@ -4179,28 +4179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.9617542961531</v>
+        <v>153.8390741322959</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.238335138496</v>
+        <v>210.4894081286681</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.7005010481484</v>
+        <v>190.4005944406679</v>
       </c>
       <c r="AD2" t="n">
-        <v>141961.7542961531</v>
+        <v>153839.0741322959</v>
       </c>
       <c r="AE2" t="n">
-        <v>194238.335138496</v>
+        <v>210489.4081286681</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.944295345740628e-06</v>
+        <v>9.348494006667326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.151041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>175700.5010481484</v>
+        <v>190400.5944406679</v>
       </c>
     </row>
     <row r="3">
@@ -4285,28 +4285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.84610873800032</v>
+        <v>69.72333906559199</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.14759796551063</v>
+        <v>95.39854848613436</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.59386230005201</v>
+        <v>86.29384491134491</v>
       </c>
       <c r="AD3" t="n">
-        <v>57846.10873800032</v>
+        <v>69723.33906559198</v>
       </c>
       <c r="AE3" t="n">
-        <v>79147.59796551062</v>
+        <v>95398.54848613436</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.156389817456998e-06</v>
+        <v>1.542180553397288e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.910416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>71593.86230005202</v>
+        <v>86293.8449113449</v>
       </c>
     </row>
     <row r="4">
@@ -4391,28 +4391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.26461818229001</v>
+        <v>66.1418485098817</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.24724458297833</v>
+        <v>90.49819510360206</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.16119176665786</v>
+        <v>81.86117437795076</v>
       </c>
       <c r="AD4" t="n">
-        <v>54264.61818229002</v>
+        <v>66141.8485098817</v>
       </c>
       <c r="AE4" t="n">
-        <v>74247.24458297832</v>
+        <v>90498.19510360206</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.546740731047338e-06</v>
+        <v>1.615986685940322e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.822916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>67161.19176665787</v>
+        <v>81861.17437795077</v>
       </c>
     </row>
   </sheetData>
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.84748482791582</v>
+        <v>71.73241466728609</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.62245725998463</v>
+        <v>98.14745435853089</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.54620870747645</v>
+        <v>88.78039906539442</v>
       </c>
       <c r="AD2" t="n">
-        <v>61847.48482791582</v>
+        <v>71732.4146672861</v>
       </c>
       <c r="AE2" t="n">
-        <v>84622.45725998463</v>
+        <v>98147.4543585309</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.365297202278915e-06</v>
+        <v>1.688543545643968e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>76546.20870747646</v>
+        <v>88780.39906539442</v>
       </c>
     </row>
   </sheetData>
@@ -4985,28 +4985,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.25262782808443</v>
+        <v>100.7332593493129</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.1193829423766</v>
+        <v>137.82768947943</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.4644804300187</v>
+        <v>124.6736082379273</v>
       </c>
       <c r="AD2" t="n">
-        <v>89252.62782808443</v>
+        <v>100733.2593493129</v>
       </c>
       <c r="AE2" t="n">
-        <v>122119.3829423766</v>
+        <v>137827.68947943</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.423431926567756e-06</v>
+        <v>1.258983780466636e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.521875</v>
       </c>
       <c r="AH2" t="n">
-        <v>110464.4804300187</v>
+        <v>124673.6082379273</v>
       </c>
     </row>
     <row r="3">
@@ -5091,28 +5091,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.84484857419018</v>
+        <v>64.24013924084703</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.3046531693626</v>
+        <v>87.89619258421834</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.40399855111285</v>
+        <v>79.50750332708273</v>
       </c>
       <c r="AD3" t="n">
-        <v>52844.84857419018</v>
+        <v>64240.13924084703</v>
       </c>
       <c r="AE3" t="n">
-        <v>72304.6531693626</v>
+        <v>87896.19258421834</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.48880062450776e-06</v>
+        <v>1.66379319093693e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.908333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>65403.99855111285</v>
+        <v>79507.50332708273</v>
       </c>
     </row>
   </sheetData>
@@ -5388,28 +5388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.5775797062294</v>
+        <v>130.7839933836666</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.1923905418621</v>
+        <v>178.9444295300314</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.1445553744043</v>
+        <v>161.8662243258195</v>
       </c>
       <c r="AD2" t="n">
-        <v>107577.5797062294</v>
+        <v>130783.9933836666</v>
       </c>
       <c r="AE2" t="n">
-        <v>147192.3905418621</v>
+        <v>178944.4295300314</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.628680799901107e-06</v>
+        <v>1.082228191727421e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.819791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>133144.5553744043</v>
+        <v>161866.2243258195</v>
       </c>
     </row>
     <row r="3">
@@ -5494,28 +5494,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.46397792301036</v>
+        <v>66.10985518901478</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.52001737536278</v>
+        <v>90.45442043054625</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.40793150657628</v>
+        <v>81.82157749825326</v>
       </c>
       <c r="AD3" t="n">
-        <v>54463.97792301036</v>
+        <v>66109.85518901478</v>
       </c>
       <c r="AE3" t="n">
-        <v>74520.01737536279</v>
+        <v>90454.42043054625</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.406609823486793e-06</v>
+        <v>1.616341461038247e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.8875</v>
       </c>
       <c r="AH3" t="n">
-        <v>67407.93150657628</v>
+        <v>81821.57749825326</v>
       </c>
     </row>
     <row r="4">
@@ -5600,28 +5600,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.53067062228488</v>
+        <v>66.17654788828929</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.61126926878438</v>
+        <v>90.54567232396785</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.49047444736259</v>
+        <v>81.90412043903956</v>
       </c>
       <c r="AD4" t="n">
-        <v>54530.67062228488</v>
+        <v>66176.54788828929</v>
       </c>
       <c r="AE4" t="n">
-        <v>74611.26926878438</v>
+        <v>90545.67232396785</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.413313173110451e-06</v>
+        <v>1.617630316135849e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.886458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>67490.47444736259</v>
+        <v>81904.12043903956</v>
       </c>
     </row>
   </sheetData>
@@ -5897,28 +5897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.6048947143619</v>
+        <v>197.7906055931007</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.5338758554984</v>
+        <v>270.625832478031</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.8639761248068</v>
+        <v>244.7976828521485</v>
       </c>
       <c r="AD2" t="n">
-        <v>173604.8947143619</v>
+        <v>197790.6055931007</v>
       </c>
       <c r="AE2" t="n">
-        <v>237533.8758554984</v>
+        <v>270625.8324780311</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.283731985607629e-06</v>
+        <v>7.980267783433519e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.576041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>214863.9761248069</v>
+        <v>244797.6828521485</v>
       </c>
     </row>
     <row r="3">
@@ -6003,28 +6003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.73601079670343</v>
+        <v>89.74361489005223</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.3618394427639</v>
+        <v>122.7911731013811</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.21081476615275</v>
+        <v>111.0721558791113</v>
       </c>
       <c r="AD3" t="n">
-        <v>77736.01079670343</v>
+        <v>89743.61489005222</v>
       </c>
       <c r="AE3" t="n">
-        <v>106361.8394427639</v>
+        <v>122791.1731013811</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.542668110870621e-06</v>
+        <v>1.405141860614656e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>96210.81476615275</v>
+        <v>111072.1558791113</v>
       </c>
     </row>
     <row r="4">
@@ -6109,28 +6109,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.23586840979515</v>
+        <v>69.32872384916453</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.31264022655752</v>
+        <v>94.8586185378239</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.8385917558338</v>
+        <v>85.80544511950458</v>
       </c>
       <c r="AD4" t="n">
-        <v>57235.86840979515</v>
+        <v>69328.72384916453</v>
       </c>
       <c r="AE4" t="n">
-        <v>78312.64022655752</v>
+        <v>94858.6185378239</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.266745427033197e-06</v>
+        <v>1.540031972748214e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.853125</v>
       </c>
       <c r="AH4" t="n">
-        <v>70838.5917558338</v>
+        <v>85805.44511950458</v>
       </c>
     </row>
   </sheetData>
@@ -6406,28 +6406,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.49030313892951</v>
+        <v>85.52553528201783</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.9209190348839</v>
+        <v>117.0198104931325</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.19372956912845</v>
+        <v>105.8516040180338</v>
       </c>
       <c r="AD2" t="n">
-        <v>74490.30313892951</v>
+        <v>85525.53528201782</v>
       </c>
       <c r="AE2" t="n">
-        <v>101920.9190348839</v>
+        <v>117019.8104931325</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.321151104345773e-06</v>
+        <v>1.46752280239555e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.263541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>92193.72956912845</v>
+        <v>105851.6040180338</v>
       </c>
     </row>
     <row r="3">
@@ -6512,28 +6512,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.73050155272351</v>
+        <v>62.85098504183241</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.77995441307172</v>
+        <v>85.99549052396952</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.02481490419375</v>
+        <v>77.78820160381137</v>
       </c>
       <c r="AD3" t="n">
-        <v>51730.50155272351</v>
+        <v>62850.98504183241</v>
       </c>
       <c r="AE3" t="n">
-        <v>70779.95441307173</v>
+        <v>85995.49052396952</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.488526306511989e-06</v>
+        <v>1.701522852894867e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.952083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>64024.81490419375</v>
+        <v>77788.20160381138</v>
       </c>
     </row>
   </sheetData>
@@ -6809,28 +6809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.29524769936167</v>
+        <v>71.85524536021299</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.86686205771458</v>
+        <v>98.31551673150115</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.86272645082627</v>
+        <v>88.93242180136545</v>
       </c>
       <c r="AD2" t="n">
-        <v>61295.24769936167</v>
+        <v>71855.245360213</v>
       </c>
       <c r="AE2" t="n">
-        <v>83866.86205771458</v>
+        <v>98315.51673150115</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.320724901335198e-06</v>
+        <v>1.740747685439596e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.075</v>
       </c>
       <c r="AH2" t="n">
-        <v>75862.72645082627</v>
+        <v>88932.42180136545</v>
       </c>
     </row>
     <row r="3">
@@ -6915,28 +6915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.28551876540102</v>
+        <v>71.84551642625235</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.85355050105933</v>
+        <v>98.30220517484592</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.85068533045533</v>
+        <v>88.92038068099451</v>
       </c>
       <c r="AD3" t="n">
-        <v>61285.51876540102</v>
+        <v>71845.51642625235</v>
       </c>
       <c r="AE3" t="n">
-        <v>83853.55050105933</v>
+        <v>98302.20517484592</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.35254221588891e-06</v>
+        <v>1.74740406662309e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>75850.68533045534</v>
+        <v>88920.38068099451</v>
       </c>
     </row>
   </sheetData>
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.7289196604885</v>
+        <v>70.90905351736178</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.09198705029893</v>
+        <v>97.02089530907473</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.16180442657425</v>
+        <v>87.76135723048242</v>
       </c>
       <c r="AD2" t="n">
-        <v>60728.9196604885</v>
+        <v>70909.05351736178</v>
       </c>
       <c r="AE2" t="n">
-        <v>83091.98705029892</v>
+        <v>97020.89530907474</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.035705361962198e-06</v>
+        <v>1.746846446597094e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.221875</v>
       </c>
       <c r="AH2" t="n">
-        <v>75161.80442657425</v>
+        <v>87761.35723048242</v>
       </c>
     </row>
   </sheetData>
@@ -11866,28 +11866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.20271662343671</v>
+        <v>83.14213045094598</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.84498930810823</v>
+        <v>113.7587308548615</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.46118681978031</v>
+        <v>102.9017572434843</v>
       </c>
       <c r="AD2" t="n">
-        <v>64202.71662343672</v>
+        <v>83142.13045094599</v>
       </c>
       <c r="AE2" t="n">
-        <v>87844.98930810823</v>
+        <v>113758.7308548615</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.692121461274596e-06</v>
+        <v>1.591739133881301e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.863541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>79461.18681978031</v>
+        <v>102901.7572434843</v>
       </c>
     </row>
   </sheetData>
@@ -12163,28 +12163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.11215530521048</v>
+        <v>121.0733270529457</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.2413792913416</v>
+        <v>165.6578674519825</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.4295704607709</v>
+        <v>149.8477130846883</v>
       </c>
       <c r="AD2" t="n">
-        <v>98112.15530521047</v>
+        <v>121073.3270529457</v>
       </c>
       <c r="AE2" t="n">
-        <v>134241.3792913416</v>
+        <v>165657.8674519825</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.004612533966989e-06</v>
+        <v>1.16524201527702e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.669791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>121429.5704607709</v>
+        <v>149847.7130846883</v>
       </c>
     </row>
     <row r="3">
@@ -12269,28 +12269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.73892169911139</v>
+        <v>65.26217800026481</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.52796346260166</v>
+        <v>89.29459110402091</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.51055782689234</v>
+        <v>80.77244065482041</v>
       </c>
       <c r="AD3" t="n">
-        <v>53738.92169911139</v>
+        <v>65262.17800026482</v>
       </c>
       <c r="AE3" t="n">
-        <v>73527.96346260166</v>
+        <v>89294.5911040209</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.431907601702979e-06</v>
+        <v>1.636277603402148e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.901041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>66510.55782689234</v>
+        <v>80772.44065482041</v>
       </c>
     </row>
     <row r="4">
@@ -12375,28 +12375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.62083655776917</v>
+        <v>65.14409285892259</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.36639416266856</v>
+        <v>89.13302180408779</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.36440847418086</v>
+        <v>80.62629130210895</v>
       </c>
       <c r="AD4" t="n">
-        <v>53620.83655776917</v>
+        <v>65144.0928589226</v>
       </c>
       <c r="AE4" t="n">
-        <v>73366.39416266856</v>
+        <v>89133.0218040878</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.470221165688162e-06</v>
+        <v>1.643712650086342e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.892708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>66364.40847418086</v>
+        <v>80626.29130210895</v>
       </c>
     </row>
   </sheetData>
@@ -12672,28 +12672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.3815282620064</v>
+        <v>180.1845974696627</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.9681060340963</v>
+        <v>246.5365154412953</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.5472903003863</v>
+        <v>223.0074164238223</v>
       </c>
       <c r="AD2" t="n">
-        <v>156381.5282620064</v>
+        <v>180184.5974696628</v>
       </c>
       <c r="AE2" t="n">
-        <v>213968.1060340962</v>
+        <v>246536.5154412953</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.610572969077104e-06</v>
+        <v>8.651243291540044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="AH2" t="n">
-        <v>193547.2903003863</v>
+        <v>223007.4164238223</v>
       </c>
     </row>
     <row r="3">
@@ -12778,28 +12778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.95191852252878</v>
+        <v>73.93874922665309</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.76534804824344</v>
+        <v>101.1662586392664</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.67546219945238</v>
+        <v>91.5110929024959</v>
       </c>
       <c r="AD3" t="n">
-        <v>61951.91852252878</v>
+        <v>73938.74922665309</v>
       </c>
       <c r="AE3" t="n">
-        <v>84765.34804824344</v>
+        <v>101166.2586392664</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.812396821601658e-06</v>
+        <v>1.465912068782612e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.977083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>76675.46219945238</v>
+        <v>91511.0929024959</v>
       </c>
     </row>
     <row r="4">
@@ -12884,28 +12884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.49097488071486</v>
+        <v>68.47780558483916</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.29344403768718</v>
+        <v>93.69435462871016</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.91666622077807</v>
+        <v>84.75229692382162</v>
       </c>
       <c r="AD4" t="n">
-        <v>56490.97488071486</v>
+        <v>68477.80558483917</v>
       </c>
       <c r="AE4" t="n">
-        <v>77293.44403768718</v>
+        <v>93694.35462871016</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.319937946321095e-06</v>
+        <v>1.561146691027159e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.85625</v>
       </c>
       <c r="AH4" t="n">
-        <v>69916.66622077808</v>
+        <v>84752.29692382162</v>
       </c>
     </row>
   </sheetData>
@@ -13181,28 +13181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.97828499959317</v>
+        <v>97.29867092605971</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.0615738124267</v>
+        <v>133.1283340753901</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.74832887316762</v>
+        <v>120.4227527180608</v>
       </c>
       <c r="AD2" t="n">
-        <v>78978.28499959318</v>
+        <v>97298.67092605971</v>
       </c>
       <c r="AE2" t="n">
-        <v>108061.5738124267</v>
+        <v>133128.3340753901</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.571848412671892e-06</v>
+        <v>1.393477003512585e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.561458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>97748.32887316763</v>
+        <v>120422.7527180608</v>
       </c>
     </row>
   </sheetData>
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.20265480345801</v>
+        <v>73.93135043178022</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.47666060640037</v>
+        <v>101.1561352817096</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.22344948890162</v>
+        <v>91.50193570397605</v>
       </c>
       <c r="AD2" t="n">
-        <v>63202.65480345801</v>
+        <v>73931.35043178021</v>
       </c>
       <c r="AE2" t="n">
-        <v>86476.66060640037</v>
+        <v>101156.1352817095</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.225571438306816e-06</v>
+        <v>1.69387831964827e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.067708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>78223.44948890162</v>
+        <v>91501.93570397605</v>
       </c>
     </row>
     <row r="3">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.73528828574602</v>
+        <v>72.46398391406822</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.46894500122589</v>
+        <v>99.14841967653507</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.40734744323778</v>
+        <v>89.68583365831225</v>
       </c>
       <c r="AD3" t="n">
-        <v>61735.28828574602</v>
+        <v>72463.98391406822</v>
       </c>
       <c r="AE3" t="n">
-        <v>84468.94500122589</v>
+        <v>99148.41967653506</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.426920023473526e-06</v>
+        <v>1.735341700723221e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.01875</v>
       </c>
       <c r="AH3" t="n">
-        <v>76407.34744323778</v>
+        <v>89685.83365831224</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.66667938065689</v>
+        <v>92.84273536340973</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.7399536081857</v>
+        <v>127.0315264565725</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.075649263859</v>
+        <v>114.9078158614579</v>
       </c>
       <c r="AD2" t="n">
-        <v>81666.67938065689</v>
+        <v>92842.73536340972</v>
       </c>
       <c r="AE2" t="n">
-        <v>111739.9536081857</v>
+        <v>127031.5264565725</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.847203705355953e-06</v>
+        <v>1.356557119119172e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.391666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>101075.649263859</v>
+        <v>114907.8158614579</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.48079859099982</v>
+        <v>63.74210591977322</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.80654392161004</v>
+        <v>87.21476142264606</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.95342815086492</v>
+        <v>78.89110699917606</v>
       </c>
       <c r="AD3" t="n">
-        <v>52480.79859099982</v>
+        <v>63742.10591977322</v>
       </c>
       <c r="AE3" t="n">
-        <v>71806.54392161005</v>
+        <v>87214.76142264606</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.469112580570117e-06</v>
+        <v>1.677887128552557e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>64953.42815086492</v>
+        <v>78891.10699917606</v>
       </c>
     </row>
   </sheetData>
